--- a/Bi-GRU results/bigru_result_full_ce.xlsx
+++ b/Bi-GRU results/bigru_result_full_ce.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uoe-my.sharepoint.com/personal/hdong3_ed_ac_uk/Documents/My python projects/caml-mimic/results/rnn_code_emb/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hdong3\OneDrive\python_projects\label-embedding-medical-coding\Bi-GRU results\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="bigru_ce_result" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -933,9 +933,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI11"/>
+  <dimension ref="A1:AI12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AB4" sqref="AB4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -2114,6 +2116,144 @@
       </c>
       <c r="AI11" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A12" t="str">
+        <f>ROUND(AVERAGE(A2:A11),3) &amp;"±"&amp; ROUND(_xlfn.STDEV.P(A2:A11),3)</f>
+        <v>0.025±0.003</v>
+      </c>
+      <c r="B12" t="str">
+        <f t="shared" ref="B12:Z12" si="0">ROUND(AVERAGE(B2:B11),3) &amp;"±"&amp; ROUND(_xlfn.STDEV.P(B2:B11),3)</f>
+        <v>0.045±0.003</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>0.036±0.005</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>0.04±0.004</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v>0.28±0.012</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v>0.558±0.039</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v>0.361±0.023</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="0"/>
+        <v>0.437±0.015</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="0"/>
+        <v>0.329±0.01</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="0"/>
+        <v>0.61±0.018</v>
+      </c>
+      <c r="K12" t="str">
+        <f t="shared" si="0"/>
+        <v>0.427±0.013</v>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" si="0"/>
+        <v>0.447±0.013</v>
+      </c>
+      <c r="M12" t="str">
+        <f t="shared" si="0"/>
+        <v>0.461±0.013</v>
+      </c>
+      <c r="N12" t="str">
+        <f t="shared" si="0"/>
+        <v>0.454±0.013</v>
+      </c>
+      <c r="O12" t="str">
+        <f t="shared" si="0"/>
+        <v>0.855±0.006</v>
+      </c>
+      <c r="P12" t="str">
+        <f t="shared" si="0"/>
+        <v>0.976±0.001</v>
+      </c>
+      <c r="Q12" t="str">
+        <f t="shared" si="0"/>
+        <v>0.007±0</v>
+      </c>
+      <c r="R12" t="str">
+        <f t="shared" si="0"/>
+        <v>0.025±0.003</v>
+      </c>
+      <c r="S12" t="str">
+        <f t="shared" si="0"/>
+        <v>0.05±0.004</v>
+      </c>
+      <c r="T12" t="str">
+        <f t="shared" si="0"/>
+        <v>0.036±0.005</v>
+      </c>
+      <c r="U12" t="str">
+        <f t="shared" si="0"/>
+        <v>0.042±0.005</v>
+      </c>
+      <c r="V12" t="str">
+        <f t="shared" si="0"/>
+        <v>0.271±0.012</v>
+      </c>
+      <c r="W12" t="str">
+        <f t="shared" si="0"/>
+        <v>0.554±0.041</v>
+      </c>
+      <c r="X12" t="str">
+        <f t="shared" si="0"/>
+        <v>0.348±0.024</v>
+      </c>
+      <c r="Y12" t="str">
+        <f t="shared" si="0"/>
+        <v>0.426±0.015</v>
+      </c>
+      <c r="Z12" t="str">
+        <f t="shared" si="0"/>
+        <v>0.314±0.01</v>
+      </c>
+      <c r="AA12" t="str">
+        <f>ROUND(AVERAGE(AA2:AA11),3) &amp;"±"&amp; ROUND(_xlfn.STDEV.P(AA2:AA11),3)</f>
+        <v>0.603±0.018</v>
+      </c>
+      <c r="AB12" t="str">
+        <f t="shared" ref="AB12" si="1">ROUND(AVERAGE(AB2:AB11),3) &amp;"±"&amp; ROUND(_xlfn.STDEV.P(AB2:AB11),3)</f>
+        <v>0.413±0.013</v>
+      </c>
+      <c r="AC12" t="str">
+        <f t="shared" ref="AC12" si="2">ROUND(AVERAGE(AC2:AC11),3) &amp;"±"&amp; ROUND(_xlfn.STDEV.P(AC2:AC11),3)</f>
+        <v>0.429±0.014</v>
+      </c>
+      <c r="AD12" t="str">
+        <f t="shared" ref="AD12" si="3">ROUND(AVERAGE(AD2:AD11),3) &amp;"±"&amp; ROUND(_xlfn.STDEV.P(AD2:AD11),3)</f>
+        <v>0.458±0.014</v>
+      </c>
+      <c r="AE12" t="str">
+        <f t="shared" ref="AE12" si="4">ROUND(AVERAGE(AE2:AE11),3) &amp;"±"&amp; ROUND(_xlfn.STDEV.P(AE2:AE11),3)</f>
+        <v>0.443±0.014</v>
+      </c>
+      <c r="AF12" t="str">
+        <f t="shared" ref="AF12" si="5">ROUND(AVERAGE(AF2:AF11),3) &amp;"±"&amp; ROUND(_xlfn.STDEV.P(AF2:AF11),3)</f>
+        <v>0.849±0.007</v>
+      </c>
+      <c r="AG12" t="str">
+        <f t="shared" ref="AG12" si="6">ROUND(AVERAGE(AG2:AG11),3) &amp;"±"&amp; ROUND(_xlfn.STDEV.P(AG2:AG11),3)</f>
+        <v>0.976±0.001</v>
+      </c>
+      <c r="AH12" t="str">
+        <f t="shared" ref="AH12" si="7">ROUND(AVERAGE(AH2:AH11),3) &amp;"±"&amp; ROUND(_xlfn.STDEV.P(AH2:AH11),3)</f>
+        <v>0.007±0</v>
       </c>
     </row>
   </sheetData>
@@ -2122,6 +2262,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010051944717AD2809449324EC1A13EBD0BB" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7ed8ecc978a7623482bf07384e879217">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="1b835ce5-16f2-421e-8510-4750c6de8732" xmlns:ns4="1b95ca4c-cb41-46f6-abbf-12511316e47d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cb084c134501d07c943eadbee3bc2e07" ns3:_="" ns4:_="">
     <xsd:import namespace="1b835ce5-16f2-421e-8510-4750c6de8732"/>
@@ -2338,22 +2493,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E97E02C-71A0-4C1F-9E02-358885E6FBAE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="1b835ce5-16f2-421e-8510-4750c6de8732"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1b95ca4c-cb41-46f6-abbf-12511316e47d"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1BF01641-5540-46D3-91EF-09C965F1D649}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64BCFD35-BF87-49B8-AC6E-FA2995493C9D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2370,29 +2535,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1BF01641-5540-46D3-91EF-09C965F1D649}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E97E02C-71A0-4C1F-9E02-358885E6FBAE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="1b835ce5-16f2-421e-8510-4750c6de8732"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="1b95ca4c-cb41-46f6-abbf-12511316e47d"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>